--- a/sql/テーブル定義.xlsx
+++ b/sql/テーブル定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-26205" yWindow="1650" windowWidth="21525" windowHeight="13320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="上場状況" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">銘柄基本情報!$A$5:$AB$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">銘柄基本情報!$A$5:$AB$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改版履歴!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">上場状況!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">銘柄基本情報!$1:$5</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
   <si>
     <t>symbol</t>
   </si>
@@ -94,9 +94,6 @@
     <t>ex_dividend_date</t>
   </si>
   <si>
-    <t>book_value_per_share</t>
-  </si>
-  <si>
     <t>year_high</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>NUMERIC</t>
-  </si>
-  <si>
-    <t>moving_average_deviation</t>
   </si>
   <si>
     <t>amount_of_sales</t>
@@ -315,13 +309,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MSR 古川</t>
-    <rPh sb="4" eb="6">
-      <t>フルカワ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -378,15 +365,6 @@
     <t>配当利回り</t>
   </si>
   <si>
-    <t>実績PBR</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
     <t>自己資本比率</t>
   </si>
   <si>
@@ -406,9 +384,6 @@
   </si>
   <si>
     <t>年初来株価上昇率</t>
-  </si>
-  <si>
-    <t>200日移動平均乖離率</t>
   </si>
   <si>
     <t>売上高</t>
@@ -588,14 +563,121 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>基本1株当たり利益</t>
-  </si>
-  <si>
     <t>present_price</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>現在株価</t>
+  </si>
+  <si>
+    <t>単位：円</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>company_statistics</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出来高</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レーティング</t>
+  </si>
+  <si>
+    <t>年初来高値</t>
+  </si>
+  <si>
+    <t>年初来安値</t>
+  </si>
+  <si>
+    <t>単位：倍</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単位：億円</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単位：億円 (M: 0.01億 ; B: 10億; T: 10000億)</t>
+    <rPh sb="14" eb="15">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>market_cap</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>credit_multiplier</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単位転換</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>発行済株数</t>
+  </si>
+  <si>
+    <t>issued_shares</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>株価純資産倍率</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>book_value_per_share</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>総資産利益率</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>株主資本利益率</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>债务权</t>
     </r>
     <r>
@@ -610,92 +692,45 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>現在株価</t>
-  </si>
-  <si>
-    <t>単位：円</t>
-    <rPh sb="0" eb="2">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>エン</t>
-    </rPh>
+    <t>ev_revenue</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>NUMERIC</t>
+    <t>ev_ebitda</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>company_statistics</t>
+    <t>企业价值与收入的比率</t>
+  </si>
+  <si>
+    <t>企业价值与息税前利润的比率</t>
+  </si>
+  <si>
+    <t>企业价值/收入</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>出来高</t>
+    <t>企业价值/息税前利润</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>volume</t>
+    <t>基本1株当たり利益</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INTEGER</t>
+    <t>moving_average</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>レーティング</t>
-  </si>
-  <si>
-    <t>年初来高値</t>
-  </si>
-  <si>
-    <t>年初来安値</t>
-  </si>
-  <si>
-    <t>単位：倍</t>
+    <t>200日移動平均線</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単位：億円</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単位：億円 (M: 0.01億 ; B: 10億; T: 10000億)</t>
-    <rPh sb="14" eb="15">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>market_cap</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://minkabu.jp/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>credit_multiplier</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単位転換</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +828,18 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1224,7 +1271,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1277,7 +1324,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,10 +1333,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,9 +1354,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,34 +1363,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,25 +1396,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1420,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1589,7 +1633,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,12 +1674,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1925,7 +1963,7 @@
     <sheetView zoomScale="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J4" sqref="J4"/>
-      <selection pane="bottomLeft" activeCell="BD17" sqref="BD17"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="12"/>
@@ -1934,199 +1972,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="78" t="s">
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="83" t="s">
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86" t="s">
+      <c r="AP1" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="88" t="s">
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="93"/>
+    </row>
+    <row r="2" spans="1:44" s="1" customFormat="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="92" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="94"/>
-    </row>
-    <row r="2" spans="1:44" s="1" customFormat="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="78" t="s">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="101" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="83" t="s">
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="96"/>
+    </row>
+    <row r="3" spans="1:44" s="1" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="102" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="97"/>
-    </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78" t="s">
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="100"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="99"/>
     </row>
     <row r="4" spans="1:44" ht="7.5" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:44" ht="17.25">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1"/>
     <row r="7" spans="1:44">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65" t="s">
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2150,1403 +2188,1401 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="67"/>
+      <c r="AL7" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="66"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="68">
+      <c r="A8" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="67">
         <v>44683</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="60"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="58"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="59"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="59"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="59"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="60"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="59"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="60"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="59"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="60"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="59"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="60"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="59"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="60"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="59"/>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="59"/>
-      <c r="AO16" s="59"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="60"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="59"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="60"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="59"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="60"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="59"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="60"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="59"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="60"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="59"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="60"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="59"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="60"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="59"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="60"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="58"/>
+      <c r="AR23" s="59"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="60"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="58"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="59"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="60"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="58"/>
+      <c r="AN25" s="58"/>
+      <c r="AO25" s="58"/>
+      <c r="AP25" s="58"/>
+      <c r="AQ25" s="58"/>
+      <c r="AR25" s="59"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="60"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="58"/>
+      <c r="AN26" s="58"/>
+      <c r="AO26" s="58"/>
+      <c r="AP26" s="58"/>
+      <c r="AQ26" s="58"/>
+      <c r="AR26" s="59"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="60"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="58"/>
+      <c r="AR27" s="59"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="60"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="58"/>
+      <c r="AO28" s="58"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="58"/>
+      <c r="AR28" s="59"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="60"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="58"/>
+      <c r="AP29" s="58"/>
+      <c r="AQ29" s="58"/>
+      <c r="AR29" s="59"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="58"/>
-      <c r="AM30" s="59"/>
-      <c r="AN30" s="59"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="60"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="58"/>
+      <c r="AP30" s="58"/>
+      <c r="AQ30" s="58"/>
+      <c r="AR30" s="59"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="60"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="58"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="58"/>
+      <c r="AN31" s="58"/>
+      <c r="AO31" s="58"/>
+      <c r="AP31" s="58"/>
+      <c r="AQ31" s="58"/>
+      <c r="AR31" s="59"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="60"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="58"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="58"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="59"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="60"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="58"/>
+      <c r="AR33" s="59"/>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="60"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="59"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="59"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="59"/>
-      <c r="AO35" s="59"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="59"/>
-      <c r="AR35" s="60"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="58"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="59"/>
     </row>
     <row r="36" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="58"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="59"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="60"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="58"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="58"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="58"/>
+      <c r="AP36" s="58"/>
+      <c r="AQ36" s="58"/>
+      <c r="AR36" s="59"/>
     </row>
     <row r="37" spans="1:44">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="59"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="60"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="58"/>
+      <c r="AJ37" s="58"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="58"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="59"/>
     </row>
     <row r="38" spans="1:44">
       <c r="S38" s="3"/>
@@ -4292,13 +4328,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -4313,209 +4349,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="94"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="93"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="78" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="83" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="96"/>
+    </row>
+    <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="97"/>
-    </row>
-    <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="78" t="s">
+      <c r="G3" s="83"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="99"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="116" t="s">
+      <c r="Q5" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="106"/>
+      <c r="S5" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="107"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="106"/>
       <c r="AD5" s="2" t="str">
         <f>"-- " &amp; J2</f>
         <v>-- 銘柄基本情報</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="132"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="131"/>
       <c r="M6" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="110"/>
+        <v>54</v>
+      </c>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="109"/>
       <c r="AD6" s="2" t="str">
         <f>"CREATE TABLE " &amp; J3 &amp;" ("</f>
         <v>CREATE TABLE company_statistics (</v>
@@ -4526,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4538,19 +4574,19 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="28" t="s">
-        <v>67</v>
+      <c r="K7" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
         <v>10</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P7" s="17"/>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="24"/>
       <c r="R7" s="23"/>
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
@@ -4580,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -4592,19 +4628,19 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="28" t="s">
-        <v>67</v>
+      <c r="K8" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <v>50</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="15"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
@@ -4612,10 +4648,10 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="32"/>
       <c r="AE8" s="2" t="str">
-        <f t="shared" ref="AE8:AE51" si="0">F8</f>
+        <f t="shared" ref="AE8:AE54" si="0">F8</f>
         <v>name</v>
       </c>
       <c r="AJ8" s="2" t="str">
@@ -4623,7 +4659,7 @@
         <v>VARCHAR(50)</v>
       </c>
       <c r="AN8" s="2" t="str">
-        <f t="shared" ref="AN8:AN51" si="2">","</f>
+        <f t="shared" ref="AN8:AN54" si="2">","</f>
         <v>,</v>
       </c>
     </row>
@@ -4632,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4644,21 +4680,19 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="28" t="s">
-        <v>67</v>
+      <c r="K9" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <v>30</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="28"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="54" t="s">
-        <v>152</v>
-      </c>
+      <c r="S9" s="49"/>
       <c r="T9" s="15"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -4666,8 +4700,8 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="33"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="32"/>
       <c r="AE9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>exchange</v>
@@ -4686,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4698,20 +4732,20 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="28" t="s">
-        <v>66</v>
+      <c r="K10" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L10" s="23"/>
-      <c r="M10" s="42">
+      <c r="M10" s="40">
         <v>10</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="28"/>
+      <c r="Q10" s="24"/>
       <c r="R10" s="23"/>
-      <c r="S10" s="28" t="s">
-        <v>125</v>
+      <c r="S10" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="20"/>
@@ -4720,8 +4754,8 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="33"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32"/>
       <c r="AE10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>established_date</v>
@@ -4740,32 +4774,32 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="28" t="s">
-        <v>66</v>
+      <c r="K11" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="42">
+      <c r="M11" s="40">
         <v>10</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="28" t="s">
-        <v>125</v>
+      <c r="S11" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -4774,8 +4808,8 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32"/>
       <c r="AE11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>listing_date</v>
@@ -4794,7 +4828,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -4806,17 +4840,17 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="28" t="s">
-        <v>66</v>
+      <c r="K12" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L12" s="23"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="12"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="28"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="15"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
@@ -4824,8 +4858,8 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="33"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="32"/>
       <c r="AE12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sector</v>
@@ -4844,7 +4878,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -4856,17 +4890,17 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="28" t="s">
-        <v>66</v>
+      <c r="K13" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L13" s="23"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="24"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="28"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="15"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -4874,8 +4908,8 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="33"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="32"/>
       <c r="AE13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>industry</v>
@@ -4891,34 +4925,32 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="42">
-        <v>10</v>
-      </c>
-      <c r="N14" s="31"/>
+      <c r="K14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="12"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="28"/>
+      <c r="Q14" s="24"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="28" t="s">
+      <c r="S14" s="24" t="s">
         <v>125</v>
       </c>
       <c r="T14" s="15"/>
@@ -4928,15 +4960,15 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="33"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="32"/>
       <c r="AE14" s="2" t="str">
-        <f t="shared" ref="AE14:AE21" si="3">F14</f>
-        <v>ex_dividend_date</v>
+        <f>F14</f>
+        <v>dividend_yield</v>
       </c>
       <c r="AJ14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>VARCHAR(10)</v>
+        <f>K14&amp;IF(M14&lt;&gt;"","("&amp;M14&amp;")","")</f>
+        <v>REAL</v>
       </c>
       <c r="AN14" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4945,33 +4977,35 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="F15" s="24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="31"/>
+      <c r="K15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="40">
+        <v>10</v>
+      </c>
+      <c r="N15" s="30"/>
       <c r="O15" s="12"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="28" t="s">
-        <v>132</v>
+      <c r="S15" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="20"/>
@@ -4980,15 +5014,15 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="33"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="32"/>
       <c r="AE15" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>dividend_yield</v>
+        <f t="shared" ref="AE15:AE20" si="3">F15</f>
+        <v>ex_dividend_date</v>
       </c>
       <c r="AJ15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>REAL</v>
+        <v>VARCHAR(10)</v>
       </c>
       <c r="AN15" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4997,33 +5031,33 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="24" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="31"/>
+      <c r="K16" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="12"/>
       <c r="P16" s="13"/>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="24"/>
       <c r="R16" s="23"/>
-      <c r="S16" s="28" t="s">
-        <v>138</v>
+      <c r="S16" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="20"/>
@@ -5032,15 +5066,15 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="33"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="32"/>
       <c r="AE16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>present_price</v>
+        <v>year_change_ratio</v>
       </c>
       <c r="AJ16" s="2" t="str">
-        <f t="shared" ref="AJ16:AJ21" si="4">K16&amp;IF(M16&lt;&gt;"","("&amp;M16&amp;")","")</f>
-        <v>NUMERIC</v>
+        <f t="shared" ref="AJ16:AJ20" si="4">K16&amp;IF(M16&lt;&gt;"","("&amp;M16&amp;")","")</f>
+        <v>REAL</v>
       </c>
       <c r="AN16" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5049,32 +5083,34 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1">
       <c r="A17" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="24" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="31"/>
+      <c r="K17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="12"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="24"/>
       <c r="R17" s="23"/>
-      <c r="S17" s="28"/>
+      <c r="S17" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="T17" s="15"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
@@ -5082,15 +5118,15 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="33"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="32"/>
       <c r="AE17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>volume</v>
+        <f>F17</f>
+        <v>present_price</v>
       </c>
       <c r="AJ17" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>INTEGER</v>
+        <f>K17&amp;IF(M17&lt;&gt;"","("&amp;M17&amp;")","")</f>
+        <v>NUMERIC</v>
       </c>
       <c r="AN17" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5099,33 +5135,33 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1">
       <c r="A18" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="F18" s="24" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
+      <c r="K18" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="12"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="28"/>
+      <c r="Q18" s="24"/>
       <c r="R18" s="23"/>
-      <c r="S18" s="28" t="s">
-        <v>132</v>
+      <c r="S18" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="20"/>
@@ -5134,15 +5170,15 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="33"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="32"/>
       <c r="AE18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>year_change_ratio</v>
+        <f>F18</f>
+        <v>book_value_per_share</v>
       </c>
       <c r="AJ18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>REAL</v>
+        <f>K18&amp;IF(M18&lt;&gt;"","("&amp;M18&amp;")","")</f>
+        <v>NUMERIC</v>
       </c>
       <c r="AN18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5151,33 +5187,33 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1">
       <c r="A19" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26"/>
       <c r="F19" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="31"/>
+      <c r="K19" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="12"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="28"/>
+      <c r="Q19" s="24"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="28" t="s">
-        <v>138</v>
+      <c r="S19" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="20"/>
@@ -5186,8 +5222,8 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="33"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="32"/>
       <c r="AE19" s="2" t="str">
         <f>F19</f>
         <v>year_low</v>
@@ -5203,33 +5239,33 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1">
       <c r="A20" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
+      <c r="K20" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="46"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="28"/>
+      <c r="Q20" s="24"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="28" t="s">
-        <v>138</v>
+      <c r="S20" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="20"/>
@@ -5238,8 +5274,8 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="33"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="32"/>
       <c r="AE20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>year_high</v>
@@ -5255,34 +5291,32 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1">
       <c r="A21" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="24" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
+      <c r="K21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="12"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="24"/>
       <c r="R21" s="23"/>
-      <c r="S21" s="28" t="s">
-        <v>138</v>
-      </c>
+      <c r="S21" s="24"/>
       <c r="T21" s="15"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
@@ -5290,14 +5324,14 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="33"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="32"/>
       <c r="AE21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>book_value_per_share</v>
+        <f>F21</f>
+        <v>moving_average</v>
       </c>
       <c r="AJ21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>K21&amp;IF(M21&lt;&gt;"","("&amp;M21&amp;")","")</f>
         <v>NUMERIC</v>
       </c>
       <c r="AN21" s="2" t="str">
@@ -5307,7 +5341,7 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1">
       <c r="A22" s="11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>133</v>
@@ -5316,25 +5350,23 @@
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="24" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
+      <c r="K22" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="12"/>
       <c r="P22" s="13"/>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="23"/>
-      <c r="S22" s="28" t="s">
-        <v>132</v>
-      </c>
+      <c r="S22" s="24"/>
       <c r="T22" s="15"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
@@ -5342,15 +5374,15 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="33"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="32"/>
       <c r="AE22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>per</v>
+        <f>F22</f>
+        <v>volume</v>
       </c>
       <c r="AJ22" s="2" t="str">
-        <f t="shared" ref="AJ22:AJ51" si="5">K22&amp;IF(M22&lt;&gt;"","("&amp;M22&amp;")","")</f>
-        <v>REAL</v>
+        <f>K22&amp;IF(M22&lt;&gt;"","("&amp;M22&amp;")","")</f>
+        <v>INTEGER</v>
       </c>
       <c r="AN22" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5359,32 +5391,34 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1">
       <c r="A23" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
+      <c r="K23" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="12"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="28"/>
+      <c r="Q23" s="24"/>
       <c r="R23" s="23"/>
-      <c r="S23" s="28"/>
+      <c r="S23" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="T23" s="15"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
@@ -5392,14 +5426,14 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="33"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="32"/>
       <c r="AE23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pbr</v>
+        <v>per</v>
       </c>
       <c r="AJ23" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AJ23:AJ54" si="5">K23&amp;IF(M23&lt;&gt;"","("&amp;M23&amp;")","")</f>
         <v>REAL</v>
       </c>
       <c r="AN23" s="2" t="str">
@@ -5409,32 +5443,34 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1">
       <c r="A24" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
+      <c r="K24" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="46"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
-      <c r="Q24" s="28"/>
+      <c r="Q24" s="24"/>
       <c r="R24" s="23"/>
-      <c r="S24" s="28"/>
+      <c r="S24" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="T24" s="15"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
@@ -5442,11 +5478,11 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="33"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="32"/>
       <c r="AE24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>eps</v>
+        <v>pbr</v>
       </c>
       <c r="AJ24" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5459,32 +5495,34 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1">
       <c r="A25" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
+      <c r="K25" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="12"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="28"/>
+      <c r="Q25" s="24"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="28"/>
+      <c r="S25" s="24" t="s">
+        <v>155</v>
+      </c>
       <c r="T25" s="15"/>
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
@@ -5492,11 +5530,11 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="33"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="32"/>
       <c r="AE25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>roa</v>
+        <v>ev_revenue</v>
       </c>
       <c r="AJ25" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5509,32 +5547,34 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1">
       <c r="A26" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26"/>
       <c r="F26" s="24" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
+      <c r="K26" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
-      <c r="Q26" s="28"/>
+      <c r="Q26" s="24"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="28"/>
+      <c r="S26" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="T26" s="15"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
@@ -5542,11 +5582,11 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="33"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="32"/>
       <c r="AE26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>roe</v>
+        <v>ev_ebitda</v>
       </c>
       <c r="AJ26" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5559,34 +5599,32 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1">
       <c r="A27" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26"/>
       <c r="F27" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="31"/>
+      <c r="K27" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="28"/>
+      <c r="Q27" s="24"/>
       <c r="R27" s="23"/>
-      <c r="S27" s="28" t="s">
-        <v>132</v>
-      </c>
+      <c r="S27" s="24"/>
       <c r="T27" s="15"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
@@ -5594,14 +5632,14 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="33"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="32"/>
       <c r="AE27" s="2" t="str">
-        <f>F27</f>
-        <v>debt_equity_ratio</v>
+        <f t="shared" si="0"/>
+        <v>eps</v>
       </c>
       <c r="AJ27" s="2" t="str">
-        <f>K27&amp;IF(M27&lt;&gt;"","("&amp;M27&amp;")","")</f>
+        <f t="shared" si="5"/>
         <v>REAL</v>
       </c>
       <c r="AN27" s="2" t="str">
@@ -5611,33 +5649,33 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1">
       <c r="A28" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
       <c r="F28" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
+      <c r="K28" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="46"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
       <c r="O28" s="12"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="28"/>
+      <c r="Q28" s="24"/>
       <c r="R28" s="23"/>
-      <c r="S28" s="28" t="s">
-        <v>132</v>
+      <c r="S28" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="20"/>
@@ -5646,14 +5684,14 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="33"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="32"/>
       <c r="AE28" s="2" t="str">
-        <f>F28</f>
-        <v>own_capital_ratio</v>
+        <f t="shared" si="0"/>
+        <v>roa</v>
       </c>
       <c r="AJ28" s="2" t="str">
-        <f>K28&amp;IF(M28&lt;&gt;"","("&amp;M28&amp;")","")</f>
+        <f t="shared" si="5"/>
         <v>REAL</v>
       </c>
       <c r="AN28" s="2" t="str">
@@ -5663,52 +5701,50 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1">
       <c r="A29" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="26"/>
       <c r="F29" s="24" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="31"/>
+      <c r="K29" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="46"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="28"/>
+      <c r="Q29" s="24"/>
       <c r="R29" s="23"/>
-      <c r="S29" s="28" t="s">
-        <v>149</v>
+      <c r="S29" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="W29" s="137"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="137"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="33"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="32"/>
       <c r="AE29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>market_cap</v>
+        <v>roe</v>
       </c>
       <c r="AJ29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN29" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5717,50 +5753,50 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1">
       <c r="A30" s="11">
-        <v>24</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="26"/>
       <c r="F30" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
+      <c r="K30" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="46"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
-      <c r="Q30" s="28"/>
+      <c r="Q30" s="24"/>
       <c r="R30" s="23"/>
-      <c r="S30" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="T30" s="52"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
+      <c r="S30" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" s="15"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="33"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="32"/>
       <c r="AE30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>enterprise_value</v>
+        <f>F30</f>
+        <v>debt_equity_ratio</v>
       </c>
       <c r="AJ30" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <f>K30&amp;IF(M30&lt;&gt;"","("&amp;M30&amp;")","")</f>
+        <v>REAL</v>
       </c>
       <c r="AN30" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5769,33 +5805,33 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1">
       <c r="A31" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
       <c r="F31" s="24" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="31"/>
+      <c r="K31" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="28"/>
+      <c r="Q31" s="24"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="28" t="s">
-        <v>148</v>
+      <c r="S31" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="20"/>
@@ -5804,14 +5840,14 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="33"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="32"/>
       <c r="AE31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>credit_multiplier</v>
+        <f>F31</f>
+        <v>own_capital_ratio</v>
       </c>
       <c r="AJ31" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>K31&amp;IF(M31&lt;&gt;"","("&amp;M31&amp;")","")</f>
         <v>REAL</v>
       </c>
       <c r="AN31" s="2" t="str">
@@ -5821,44 +5857,48 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1">
       <c r="A32" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
       <c r="F32" s="24" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
+      <c r="K32" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="44"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30"/>
       <c r="O32" s="12"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="28"/>
+      <c r="Q32" s="24"/>
       <c r="R32" s="23"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="T32" s="15"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="15"/>
+      <c r="V32" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="W32" s="51"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="51"/>
       <c r="Z32" s="15"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="33"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="32"/>
       <c r="AE32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>moving_average_deviation</v>
+        <v>market_cap</v>
       </c>
       <c r="AJ32" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5871,50 +5911,50 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1">
       <c r="A33" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="26"/>
       <c r="F33" s="24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
-      <c r="K33" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="30">
-        <v>10</v>
-      </c>
-      <c r="N33" s="31"/>
+      <c r="K33" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="44"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="28"/>
+      <c r="Q33" s="24"/>
       <c r="R33" s="23"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
+      <c r="S33" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="T33" s="47"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="33"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="32"/>
       <c r="AE33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>amount_of_sales</v>
+        <v>enterprise_value</v>
       </c>
       <c r="AJ33" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN33" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5923,34 +5963,34 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1">
       <c r="A34" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="26"/>
       <c r="F34" s="24" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="30">
-        <v>10</v>
-      </c>
-      <c r="N34" s="31"/>
+      <c r="K34" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="44"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="28"/>
+      <c r="Q34" s="24"/>
       <c r="R34" s="23"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="T34" s="15"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
@@ -5958,15 +5998,15 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="33"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="32"/>
       <c r="AE34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>net_income</v>
+        <v>credit_multiplier</v>
       </c>
       <c r="AJ34" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>REAL</v>
       </c>
       <c r="AN34" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5975,34 +6015,34 @@
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1">
       <c r="A35" s="11">
-        <v>29</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="26"/>
       <c r="F35" s="24" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
-      <c r="K35" s="28" t="s">
-        <v>66</v>
+      <c r="K35" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="L35" s="23"/>
-      <c r="M35" s="30">
-        <v>10</v>
-      </c>
-      <c r="N35" s="31"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="28"/>
+      <c r="P35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="24"/>
       <c r="R35" s="23"/>
-      <c r="S35" s="28"/>
+      <c r="S35" s="24"/>
       <c r="T35" s="15"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
@@ -6010,15 +6050,15 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="33"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="32"/>
       <c r="AE35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sales_cf</v>
+        <f>F35</f>
+        <v>grade_rating</v>
       </c>
       <c r="AJ35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>REAL</v>
       </c>
       <c r="AN35" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6027,34 +6067,32 @@
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1">
       <c r="A36" s="11">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="26"/>
       <c r="F36" s="24" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="28" t="s">
-        <v>66</v>
+      <c r="K36" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L36" s="23"/>
-      <c r="M36" s="30">
-        <v>10</v>
-      </c>
-      <c r="N36" s="31"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="28"/>
+      <c r="Q36" s="24"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="24"/>
       <c r="T36" s="15"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
@@ -6062,15 +6100,15 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="33"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="32"/>
       <c r="AE36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>total_assets</v>
+        <f t="shared" ref="AE36:AE41" si="6">F36</f>
+        <v>index_adoption</v>
       </c>
       <c r="AJ36" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>VARCHAR</v>
       </c>
       <c r="AN36" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6079,34 +6117,32 @@
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1">
       <c r="A37" s="11">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
       <c r="F37" s="24" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="28" t="s">
-        <v>66</v>
+      <c r="K37" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L37" s="23"/>
-      <c r="M37" s="30">
-        <v>10</v>
-      </c>
-      <c r="N37" s="31"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="28"/>
+      <c r="Q37" s="24"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="15"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
@@ -6114,15 +6150,15 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="33"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="32"/>
       <c r="AE37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>cash_and_deposits</v>
+        <f t="shared" si="6"/>
+        <v>per_unit</v>
       </c>
       <c r="AJ37" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>VARCHAR</v>
       </c>
       <c r="AN37" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6131,34 +6167,32 @@
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1">
       <c r="A38" s="11">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
       <c r="F38" s="24" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="28" t="s">
-        <v>66</v>
+      <c r="K38" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="L38" s="23"/>
-      <c r="M38" s="30">
-        <v>10</v>
-      </c>
-      <c r="N38" s="31"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="28"/>
+      <c r="Q38" s="24"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="28"/>
+      <c r="S38" s="24"/>
       <c r="T38" s="15"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
@@ -6166,15 +6200,15 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="33"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="32"/>
       <c r="AE38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>total_capital</v>
+        <f t="shared" si="6"/>
+        <v>issued_shares</v>
       </c>
       <c r="AJ38" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>BIGINT</v>
       </c>
       <c r="AN38" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6183,32 +6217,32 @@
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1">
       <c r="A39" s="11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
       <c r="F39" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26"/>
-      <c r="K39" s="28" t="s">
-        <v>66</v>
+      <c r="K39" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L39" s="23"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="31"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="28"/>
+      <c r="Q39" s="24"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="28"/>
+      <c r="S39" s="24"/>
       <c r="T39" s="15"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
@@ -6216,11 +6250,11 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="33"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="32"/>
       <c r="AE39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>average_annual_income</v>
+        <f t="shared" si="6"/>
+        <v>business_scope</v>
       </c>
       <c r="AJ39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6233,34 +6267,32 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1">
       <c r="A40" s="11">
-        <v>34</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26"/>
       <c r="F40" s="24" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="49"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="31"/>
+      <c r="K40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q40" s="28"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="24"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="28"/>
+      <c r="S40" s="24"/>
       <c r="T40" s="15"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
@@ -6268,15 +6300,15 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="33"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="32"/>
       <c r="AE40" s="2" t="str">
-        <f>F40</f>
-        <v>grade_rating</v>
+        <f t="shared" si="6"/>
+        <v>product_range</v>
       </c>
       <c r="AJ40" s="2" t="str">
-        <f>K40&amp;IF(M40&lt;&gt;"","("&amp;M40&amp;")","")</f>
-        <v>REAL</v>
+        <f t="shared" si="5"/>
+        <v>VARCHAR</v>
       </c>
       <c r="AN40" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6285,32 +6317,32 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1">
       <c r="A41" s="11">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="26"/>
       <c r="F41" s="24" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="28" t="s">
-        <v>66</v>
+      <c r="K41" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L41" s="23"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="31"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
-      <c r="Q41" s="28"/>
+      <c r="Q41" s="24"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="28"/>
+      <c r="S41" s="24"/>
       <c r="T41" s="15"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
@@ -6318,14 +6350,14 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="33"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="32"/>
       <c r="AE41" s="2" t="str">
-        <f>F41</f>
-        <v>index_adoption</v>
+        <f t="shared" si="6"/>
+        <v>representative</v>
       </c>
       <c r="AJ41" s="2" t="str">
-        <f>K41&amp;IF(M41&lt;&gt;"","("&amp;M41&amp;")","")</f>
+        <f t="shared" si="5"/>
         <v>VARCHAR</v>
       </c>
       <c r="AN41" s="2" t="str">
@@ -6335,32 +6367,32 @@
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1">
       <c r="A42" s="11">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="28" t="s">
-        <v>66</v>
+      <c r="K42" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L42" s="23"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="31"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
-      <c r="Q42" s="28"/>
+      <c r="Q42" s="24"/>
       <c r="R42" s="23"/>
-      <c r="S42" s="28"/>
+      <c r="S42" s="24"/>
       <c r="T42" s="15"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
@@ -6368,11 +6400,11 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="33"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="32"/>
       <c r="AE42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_scope</v>
+        <v>capital_stock</v>
       </c>
       <c r="AJ42" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6385,32 +6417,32 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1">
       <c r="A43" s="11">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="26"/>
       <c r="F43" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="28" t="s">
-        <v>66</v>
+      <c r="K43" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L43" s="23"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="31"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="12"/>
       <c r="P43" s="13"/>
-      <c r="Q43" s="28"/>
+      <c r="Q43" s="24"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="28"/>
+      <c r="S43" s="24"/>
       <c r="T43" s="15"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
@@ -6418,11 +6450,11 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="33"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="32"/>
       <c r="AE43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>product_range</v>
+        <v>address</v>
       </c>
       <c r="AJ43" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6435,32 +6467,32 @@
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1">
       <c r="A44" s="11">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="26"/>
       <c r="F44" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="28" t="s">
-        <v>66</v>
+      <c r="K44" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L44" s="23"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="31"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13"/>
-      <c r="Q44" s="28"/>
+      <c r="Q44" s="24"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="28"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="15"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
@@ -6468,11 +6500,11 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="33"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="32"/>
       <c r="AE44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>representative</v>
+        <v>tel</v>
       </c>
       <c r="AJ44" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6485,32 +6517,32 @@
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1">
       <c r="A45" s="11">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="26"/>
       <c r="F45" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="26"/>
-      <c r="K45" s="28" t="s">
-        <v>66</v>
+      <c r="K45" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L45" s="23"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="31"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="12"/>
       <c r="P45" s="13"/>
-      <c r="Q45" s="28"/>
+      <c r="Q45" s="24"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="28"/>
+      <c r="S45" s="24"/>
       <c r="T45" s="15"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
@@ -6518,11 +6550,11 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="33"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="32"/>
       <c r="AE45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>capital_stock</v>
+        <v>url</v>
       </c>
       <c r="AJ45" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6535,32 +6567,34 @@
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1">
       <c r="A46" s="11">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="26"/>
       <c r="F46" s="24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="28" t="s">
-        <v>66</v>
+      <c r="K46" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L46" s="23"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="31"/>
+      <c r="M46" s="29">
+        <v>10</v>
+      </c>
+      <c r="N46" s="30"/>
       <c r="O46" s="12"/>
       <c r="P46" s="13"/>
-      <c r="Q46" s="28"/>
+      <c r="Q46" s="24"/>
       <c r="R46" s="23"/>
-      <c r="S46" s="28"/>
+      <c r="S46" s="24"/>
       <c r="T46" s="15"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
@@ -6568,15 +6602,15 @@
       <c r="X46" s="21"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="33"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="32"/>
       <c r="AE46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>address</v>
+        <f>F46</f>
+        <v>amount_of_sales</v>
       </c>
       <c r="AJ46" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <f>K46&amp;IF(M46&lt;&gt;"","("&amp;M46&amp;")","")</f>
+        <v>VARCHAR(10)</v>
       </c>
       <c r="AN46" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6585,32 +6619,34 @@
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1">
       <c r="A47" s="11">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="26"/>
       <c r="F47" s="24" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="28" t="s">
-        <v>66</v>
+      <c r="K47" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L47" s="23"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="31"/>
+      <c r="M47" s="29">
+        <v>10</v>
+      </c>
+      <c r="N47" s="30"/>
       <c r="O47" s="12"/>
       <c r="P47" s="13"/>
-      <c r="Q47" s="28"/>
+      <c r="Q47" s="24"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="24"/>
       <c r="T47" s="15"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
@@ -6618,15 +6654,15 @@
       <c r="X47" s="21"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="33"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="32"/>
       <c r="AE47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>tel</v>
+        <f>F47</f>
+        <v>net_income</v>
       </c>
       <c r="AJ47" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <f>K47&amp;IF(M47&lt;&gt;"","("&amp;M47&amp;")","")</f>
+        <v>VARCHAR(10)</v>
       </c>
       <c r="AN47" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6635,32 +6671,34 @@
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1">
       <c r="A48" s="11">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="26"/>
       <c r="F48" s="24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="28" t="s">
-        <v>66</v>
+      <c r="K48" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L48" s="23"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="31"/>
+      <c r="M48" s="29">
+        <v>10</v>
+      </c>
+      <c r="N48" s="30"/>
       <c r="O48" s="12"/>
       <c r="P48" s="13"/>
-      <c r="Q48" s="28"/>
+      <c r="Q48" s="24"/>
       <c r="R48" s="23"/>
-      <c r="S48" s="28"/>
+      <c r="S48" s="24"/>
       <c r="T48" s="15"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
@@ -6668,15 +6706,15 @@
       <c r="X48" s="21"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="33"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="32"/>
       <c r="AE48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>per_unit</v>
+        <f>F48</f>
+        <v>sales_cf</v>
       </c>
       <c r="AJ48" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <f>K48&amp;IF(M48&lt;&gt;"","("&amp;M48&amp;")","")</f>
+        <v>VARCHAR(10)</v>
       </c>
       <c r="AN48" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6685,32 +6723,34 @@
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1">
       <c r="A49" s="11">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="26"/>
       <c r="F49" s="24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="28" t="s">
-        <v>66</v>
+      <c r="K49" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L49" s="23"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="31"/>
+      <c r="M49" s="29">
+        <v>10</v>
+      </c>
+      <c r="N49" s="30"/>
       <c r="O49" s="12"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="28"/>
+      <c r="Q49" s="24"/>
       <c r="R49" s="23"/>
-      <c r="S49" s="28"/>
+      <c r="S49" s="24"/>
       <c r="T49" s="15"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
@@ -6718,15 +6758,15 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="33"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="32"/>
       <c r="AE49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>url</v>
+        <f>F49</f>
+        <v>total_assets</v>
       </c>
       <c r="AJ49" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <f>K49&amp;IF(M49&lt;&gt;"","("&amp;M49&amp;")","")</f>
+        <v>VARCHAR(10)</v>
       </c>
       <c r="AN49" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6735,34 +6775,34 @@
     </row>
     <row r="50" spans="1:40" ht="15" customHeight="1">
       <c r="A50" s="11">
-        <v>44</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
+        <v>33</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="28" t="s">
-        <v>66</v>
+      <c r="K50" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L50" s="23"/>
-      <c r="M50" s="42">
+      <c r="M50" s="29">
         <v>10</v>
       </c>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="12"/>
       <c r="P50" s="13"/>
-      <c r="Q50" s="28"/>
+      <c r="Q50" s="24"/>
       <c r="R50" s="23"/>
-      <c r="S50" s="28"/>
+      <c r="S50" s="24"/>
       <c r="T50" s="15"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
@@ -6770,11 +6810,11 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="33"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="32"/>
       <c r="AE50" s="2" t="str">
         <f>F50</f>
-        <v>delisting_date</v>
+        <v>cash_and_deposits</v>
       </c>
       <c r="AJ50" s="2" t="str">
         <f>K50&amp;IF(M50&lt;&gt;"","("&amp;M50&amp;")","")</f>
@@ -6787,36 +6827,34 @@
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1">
       <c r="A51" s="11">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="26"/>
       <c r="F51" s="24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="28" t="s">
-        <v>66</v>
+      <c r="K51" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="L51" s="23"/>
-      <c r="M51" s="43">
+      <c r="M51" s="29">
         <v>10</v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="12"/>
       <c r="P51" s="13"/>
-      <c r="Q51" s="28"/>
+      <c r="Q51" s="24"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="28" t="s">
-        <v>125</v>
-      </c>
+      <c r="S51" s="24"/>
       <c r="T51" s="15"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
@@ -6824,14 +6862,14 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="33"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="32"/>
       <c r="AE51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date</v>
+        <f>F51</f>
+        <v>total_capital</v>
       </c>
       <c r="AJ51" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>K51&amp;IF(M51&lt;&gt;"","("&amp;M51&amp;")","")</f>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN51" s="2" t="str">
@@ -6840,45 +6878,160 @@
       </c>
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1">
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AE52" s="2" t="e">
-        <f>"PRIMARY KEY (" &amp; VLOOKUP(O7,O,1,FALSE)  &amp; ")"</f>
-        <v>#NAME?</v>
+      <c r="A52" s="11">
+        <v>35</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="32"/>
+      <c r="AE52" s="2" t="str">
+        <f>F52</f>
+        <v>average_annual_income</v>
+      </c>
+      <c r="AJ52" s="2" t="str">
+        <f>K52&amp;IF(M52&lt;&gt;"","("&amp;M52&amp;")","")</f>
+        <v>VARCHAR</v>
+      </c>
+      <c r="AN52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="15" customHeight="1">
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AD53" s="2" t="str">
-        <f>");"</f>
-        <v>);</v>
+      <c r="A53" s="11">
+        <v>47</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="M53" s="29">
+        <v>10</v>
+      </c>
+      <c r="N53" s="30"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="32"/>
+      <c r="AE53" s="2" t="str">
+        <f>F53</f>
+        <v>delisting_date</v>
+      </c>
+      <c r="AJ53" s="2" t="str">
+        <f>K53&amp;IF(M53&lt;&gt;"","("&amp;M53&amp;")","")</f>
+        <v>VARCHAR(10)</v>
+      </c>
+      <c r="AN53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1">
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
+      <c r="A54" s="11">
+        <v>48</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" s="23"/>
+      <c r="M54" s="29">
+        <v>10</v>
+      </c>
+      <c r="N54" s="30"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T54" s="15"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="32"/>
+      <c r="AE54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date</v>
+      </c>
+      <c r="AJ54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>VARCHAR(10)</v>
+      </c>
+      <c r="AN54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1">
       <c r="T55" s="5"/>
@@ -6890,6 +7043,10 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
+      <c r="AE55" s="2" t="e">
+        <f>"PRIMARY KEY (" &amp; VLOOKUP(O7,O,1,FALSE)  &amp; ")"</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="56" spans="1:40" ht="15" customHeight="1">
       <c r="T56" s="5"/>
@@ -6901,6 +7058,10 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
+      <c r="AD56" s="2" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
     </row>
     <row r="57" spans="1:40" ht="15" customHeight="1">
       <c r="T57" s="5"/>
@@ -7176,6 +7337,39 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
+    </row>
+    <row r="82" spans="20:28" ht="15" customHeight="1">
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+    </row>
+    <row r="83" spans="20:28" ht="15" customHeight="1">
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+    </row>
+    <row r="84" spans="20:28" ht="15" customHeight="1">
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7200,11 +7394,8 @@
     <mergeCell ref="Q5:R6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <hyperlinks>
-    <hyperlink ref="S9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L株式会社日本ブレーン&amp;R&amp;P／&amp;N</oddHeader>
     <oddFooter>&amp;L（社外秘）&amp;R印刷日：&amp;D</oddFooter>
@@ -7236,209 +7427,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="94"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="93"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="78" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="83" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="96"/>
+    </row>
+    <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="97"/>
-    </row>
-    <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="78" t="s">
+      <c r="G3" s="83"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="99"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="116" t="s">
+      <c r="Q5" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="106"/>
+      <c r="S5" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="107"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="106"/>
       <c r="AD5" s="2" t="str">
         <f>"-- " &amp; J2</f>
         <v>-- 上場状況</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="132"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="131"/>
       <c r="M6" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="110"/>
+        <v>54</v>
+      </c>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="109"/>
       <c r="AD6" s="2" t="str">
         <f>"CREATE TABLE " &amp; J3 &amp;" ("</f>
         <v>CREATE TABLE ListingStatus (</v>
@@ -7449,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -7461,19 +7652,19 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="28" t="s">
-        <v>118</v>
+      <c r="K7" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
         <v>10</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P7" s="17"/>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="24"/>
       <c r="R7" s="23"/>
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
@@ -7503,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -7515,19 +7706,19 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="28" t="s">
-        <v>118</v>
+      <c r="K8" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <v>10</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P8" s="13"/>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="23"/>
       <c r="S8" s="14"/>
       <c r="T8" s="15"/>
@@ -7537,8 +7728,8 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="32"/>
       <c r="AE8" s="2" t="str">
         <f t="shared" ref="AE8:AE13" si="0">F8</f>
         <v>symbol</v>
@@ -7557,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -7569,19 +7760,19 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="28" t="s">
-        <v>118</v>
+      <c r="K9" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <v>76</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="28"/>
+        <v>98</v>
+      </c>
+      <c r="Q9" s="24"/>
       <c r="R9" s="23"/>
       <c r="S9" s="14"/>
       <c r="T9" s="15"/>
@@ -7591,8 +7782,8 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="33"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="32"/>
       <c r="AE9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>name</v>
@@ -7611,29 +7802,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="28" t="s">
-        <v>118</v>
+      <c r="K10" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L10" s="23"/>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <v>5</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="28"/>
+      <c r="Q10" s="24"/>
       <c r="R10" s="23"/>
       <c r="S10" s="14"/>
       <c r="T10" s="15"/>
@@ -7643,8 +7834,8 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="33"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32"/>
       <c r="AE10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>assetType</v>
@@ -7663,32 +7854,32 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="28" t="s">
-        <v>118</v>
+      <c r="K11" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>10</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="44" t="s">
-        <v>125</v>
+      <c r="S11" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -7697,8 +7888,8 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32"/>
       <c r="AE11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ipoDate</v>
@@ -7717,32 +7908,32 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="24" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="28" t="s">
-        <v>118</v>
+      <c r="K12" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L12" s="23"/>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>10</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="12"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="44" t="s">
-        <v>125</v>
+      <c r="S12" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="20"/>
@@ -7751,8 +7942,8 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="33"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="32"/>
       <c r="AE12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>delistingDate</v>
@@ -7771,32 +7962,32 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="F13" s="24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="28" t="s">
-        <v>118</v>
+      <c r="K13" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="L13" s="23"/>
-      <c r="M13" s="30">
+      <c r="M13" s="29">
         <v>8</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="24"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="28" t="s">
-        <v>124</v>
+      <c r="S13" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="20"/>
@@ -7805,8 +7996,8 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="33"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="32"/>
       <c r="AE13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>status</v>

--- a/sql/テーブル定義.xlsx
+++ b/sql/テーブル定義.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studio\SourceRepository\WindowsService\sql\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388AF9C-EA32-46C4-9058-85E800AFA4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26205" yWindow="1650" windowWidth="21525" windowHeight="13320" activeTab="1"/>
+    <workbookView xWindow="5445" yWindow="2100" windowWidth="21525" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="3" r:id="rId1"/>
@@ -17,9 +23,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">上場状況!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">銘柄基本情報!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
   <si>
     <t>symbol</t>
   </si>
@@ -64,12 +70,6 @@
     <t>index_adoption</t>
   </si>
   <si>
-    <t>dividend_yield</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
     <t>pbr</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>year_low</t>
-  </si>
-  <si>
-    <t>year_change_ratio</t>
   </si>
   <si>
     <t>NUMERIC</t>
@@ -582,9 +579,6 @@
   <si>
     <t>NUMERIC</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>REAL</t>
   </si>
   <si>
     <t>company_statistics</t>
@@ -706,14 +700,6 @@
     <t>企业价值与息税前利润的比率</t>
   </si>
   <si>
-    <t>企业价值/收入</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>企业价值/息税前利润</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>基本1株当たり利益</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -723,13 +709,118 @@
   </si>
   <si>
     <t>200日移動平均線</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>企</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/收入</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>企</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/息税前利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>润</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dividend_yield</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>year_change_ratio</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1271,7 +1362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1403,12 +1494,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1679,8 +1764,8 @@
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1950,14 +2035,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1972,199 +2057,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="77" t="s">
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="82" t="s">
+      <c r="AP1" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="85" t="s">
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="91"/>
+    </row>
+    <row r="2" spans="1:44" s="1" customFormat="1">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="87" t="s">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="91" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="93"/>
-    </row>
-    <row r="2" spans="1:44" s="1" customFormat="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="77" t="s">
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="100" t="s">
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="94"/>
+    </row>
+    <row r="3" spans="1:44" s="1" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="82" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="101" t="s">
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="96"/>
-    </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="99"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="97"/>
     </row>
     <row r="4" spans="1:44" ht="7.5" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:44" ht="17.25">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1"/>
     <row r="7" spans="1:44">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2188,1401 +2273,1401 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="66"/>
+      <c r="AL7" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="64"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="67">
+      <c r="A8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="65">
         <v>44683</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="58"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="59"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="57"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="59"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="59"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="57"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="59"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="57"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="59"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="57"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="59"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="57"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="59"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="57"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="59"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="57"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="59"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="57"/>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="59"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="59"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="57"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="59"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="57"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="59"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="57"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="59"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="57"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="59"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="57"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="59"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="57"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="59"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="57"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="59"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="57"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="59"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="56"/>
+      <c r="AR24" s="57"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="59"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="57"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="59"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="57"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="58"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="59"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="57"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="59"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="57"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="58"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="59"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="57"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="59"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="58"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="58"/>
-      <c r="AP30" s="58"/>
-      <c r="AQ30" s="58"/>
-      <c r="AR30" s="59"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="57"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="58"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="59"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="57"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="58"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="58"/>
-      <c r="AN32" s="58"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="59"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="57"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="58"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="58"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="59"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="57"/>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="59"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="57"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="59"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="57"/>
     </row>
     <row r="36" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="58"/>
-      <c r="AJ36" s="58"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="58"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="58"/>
-      <c r="AQ36" s="58"/>
-      <c r="AR36" s="59"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="57"/>
     </row>
     <row r="37" spans="1:44">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="58"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58"/>
-      <c r="AJ37" s="58"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="58"/>
-      <c r="AO37" s="58"/>
-      <c r="AP37" s="58"/>
-      <c r="AQ37" s="58"/>
-      <c r="AR37" s="59"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="55"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AQ37" s="56"/>
+      <c r="AR37" s="57"/>
     </row>
     <row r="38" spans="1:44">
       <c r="S38" s="3"/>
@@ -4327,14 +4412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q56" sqref="Q56"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -4349,209 +4434,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="A1" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="38"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
+      <c r="P1" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="82"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
       <c r="Y1" s="35"/>
-      <c r="Z1" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="93"/>
+      <c r="Z1" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="91"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
-      <c r="P2" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
+      <c r="P2" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82"/>
       <c r="T2" s="39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="96"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="94"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="84"/>
+      <c r="P3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="36"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="99"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="97"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="110" t="s">
+      <c r="A5" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="115" t="s">
+      <c r="R5" s="104"/>
+      <c r="S5" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="106"/>
-      <c r="S5" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="106"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="104"/>
       <c r="AD5" s="2" t="str">
         <f>"-- " &amp; J2</f>
         <v>-- 銘柄基本情報</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="126" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="131"/>
+      <c r="L6" s="129"/>
       <c r="M6" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="109"/>
+        <v>51</v>
+      </c>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="107"/>
       <c r="AD6" s="2" t="str">
         <f>"CREATE TABLE " &amp; J3 &amp;" ("</f>
         <v>CREATE TABLE company_statistics (</v>
@@ -4562,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4575,7 +4660,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
@@ -4583,7 +4668,7 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="24"/>
@@ -4616,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -4629,7 +4714,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="29">
@@ -4668,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4681,7 +4766,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="29">
@@ -4692,7 +4777,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="49"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="15"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -4720,7 +4805,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4733,7 +4818,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="40">
@@ -4745,7 +4830,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="23"/>
       <c r="S10" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="20"/>
@@ -4774,20 +4859,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L11" s="23"/>
       <c r="M11" s="40">
@@ -4799,7 +4884,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
       <c r="S11" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -4828,7 +4913,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -4841,7 +4926,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="29"/>
@@ -4878,7 +4963,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -4891,7 +4976,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="29"/>
@@ -4928,22 +5013,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="46"/>
+      <c r="K14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="44"/>
       <c r="M14" s="29"/>
       <c r="N14" s="30"/>
       <c r="O14" s="12"/>
@@ -4951,7 +5036,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="23"/>
       <c r="S14" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="20"/>
@@ -4968,7 +5053,7 @@
       </c>
       <c r="AJ14" s="2" t="str">
         <f>K14&amp;IF(M14&lt;&gt;"","("&amp;M14&amp;")","")</f>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN14" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4980,20 +5065,20 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="F15" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
       <c r="K15" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="40">
@@ -5005,7 +5090,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="23"/>
       <c r="S15" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="20"/>
@@ -5034,22 +5119,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="24" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="46"/>
+      <c r="K16" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="44"/>
       <c r="M16" s="29"/>
       <c r="N16" s="30"/>
       <c r="O16" s="12"/>
@@ -5057,7 +5142,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="20"/>
@@ -5074,7 +5159,7 @@
       </c>
       <c r="AJ16" s="2" t="str">
         <f t="shared" ref="AJ16:AJ20" si="4">K16&amp;IF(M16&lt;&gt;"","("&amp;M16&amp;")","")</f>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN16" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5086,22 +5171,22 @@
         <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="46"/>
+      <c r="K17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="23"/>
       <c r="M17" s="29"/>
       <c r="N17" s="30"/>
       <c r="O17" s="12"/>
@@ -5109,7 +5194,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="23"/>
       <c r="S17" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="20"/>
@@ -5138,22 +5223,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="F18" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="46"/>
+      <c r="K18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="23"/>
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
       <c r="O18" s="12"/>
@@ -5161,7 +5246,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="23"/>
       <c r="S18" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="20"/>
@@ -5190,22 +5275,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26"/>
       <c r="F19" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="46"/>
+      <c r="K19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="23"/>
       <c r="M19" s="29"/>
       <c r="N19" s="30"/>
       <c r="O19" s="12"/>
@@ -5213,7 +5298,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="23"/>
       <c r="S19" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="20"/>
@@ -5242,22 +5327,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="46"/>
+      <c r="K20" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="23"/>
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="12"/>
@@ -5265,7 +5350,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="23"/>
       <c r="S20" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="20"/>
@@ -5294,22 +5379,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="44"/>
+      <c r="K21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="23"/>
       <c r="M21" s="29"/>
       <c r="N21" s="30"/>
       <c r="O21" s="12"/>
@@ -5344,22 +5429,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="46"/>
+      <c r="K22" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="23"/>
       <c r="M22" s="29"/>
       <c r="N22" s="30"/>
       <c r="O22" s="12"/>
@@ -5394,22 +5479,22 @@
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="24" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="46"/>
+      <c r="K23" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="44"/>
       <c r="M23" s="29"/>
       <c r="N23" s="30"/>
       <c r="O23" s="12"/>
@@ -5417,7 +5502,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="23"/>
       <c r="S23" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="20"/>
@@ -5434,7 +5519,7 @@
       </c>
       <c r="AJ23" s="2" t="str">
         <f t="shared" ref="AJ23:AJ54" si="5">K23&amp;IF(M23&lt;&gt;"","("&amp;M23&amp;")","")</f>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN23" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5446,22 +5531,22 @@
         <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" s="46"/>
+      <c r="K24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="44"/>
       <c r="M24" s="29"/>
       <c r="N24" s="30"/>
       <c r="O24" s="12"/>
@@ -5469,7 +5554,7 @@
       <c r="Q24" s="24"/>
       <c r="R24" s="23"/>
       <c r="S24" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="20"/>
@@ -5486,7 +5571,7 @@
       </c>
       <c r="AJ24" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN24" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5498,22 +5583,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" s="46"/>
+      <c r="K25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="44"/>
       <c r="M25" s="29"/>
       <c r="N25" s="30"/>
       <c r="O25" s="12"/>
@@ -5521,7 +5606,7 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="23"/>
       <c r="S25" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="20"/>
@@ -5538,7 +5623,7 @@
       </c>
       <c r="AJ25" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN25" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5550,22 +5635,22 @@
         <v>19</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26"/>
       <c r="F26" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" s="46"/>
+      <c r="K26" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="44"/>
       <c r="M26" s="29"/>
       <c r="N26" s="30"/>
       <c r="O26" s="12"/>
@@ -5573,7 +5658,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="23"/>
       <c r="S26" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="20"/>
@@ -5590,7 +5675,7 @@
       </c>
       <c r="AJ26" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN26" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5602,22 +5687,22 @@
         <v>20</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26"/>
       <c r="F27" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27" s="46"/>
+      <c r="K27" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="44"/>
       <c r="M27" s="29"/>
       <c r="N27" s="30"/>
       <c r="O27" s="12"/>
@@ -5640,7 +5725,7 @@
       </c>
       <c r="AJ27" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN27" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5652,22 +5737,22 @@
         <v>21</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
       <c r="F28" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28" s="46"/>
+      <c r="K28" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="44"/>
       <c r="M28" s="29"/>
       <c r="N28" s="30"/>
       <c r="O28" s="12"/>
@@ -5675,7 +5760,7 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="23"/>
       <c r="S28" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="20"/>
@@ -5692,7 +5777,7 @@
       </c>
       <c r="AJ28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN28" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5704,22 +5789,22 @@
         <v>22</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="26"/>
       <c r="F29" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="46"/>
+      <c r="K29" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="44"/>
       <c r="M29" s="29"/>
       <c r="N29" s="30"/>
       <c r="O29" s="12"/>
@@ -5727,7 +5812,7 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="23"/>
       <c r="S29" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="20"/>
@@ -5744,7 +5829,7 @@
       </c>
       <c r="AJ29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN29" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5755,23 +5840,23 @@
       <c r="A30" s="11">
         <v>23</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>152</v>
+      <c r="B30" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="26"/>
       <c r="F30" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="46"/>
+      <c r="K30" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="44"/>
       <c r="M30" s="29"/>
       <c r="N30" s="30"/>
       <c r="O30" s="12"/>
@@ -5779,7 +5864,7 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="23"/>
       <c r="S30" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="20"/>
@@ -5796,7 +5881,7 @@
       </c>
       <c r="AJ30" s="2" t="str">
         <f>K30&amp;IF(M30&lt;&gt;"","("&amp;M30&amp;")","")</f>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN30" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5808,22 +5893,22 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
       <c r="F31" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="46"/>
+      <c r="K31" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="44"/>
       <c r="M31" s="29"/>
       <c r="N31" s="30"/>
       <c r="O31" s="12"/>
@@ -5831,7 +5916,7 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="23"/>
       <c r="S31" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="20"/>
@@ -5848,7 +5933,7 @@
       </c>
       <c r="AJ31" s="2" t="str">
         <f>K31&amp;IF(M31&lt;&gt;"","("&amp;M31&amp;")","")</f>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN31" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5860,22 +5945,22 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
       <c r="F32" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="44"/>
+      <c r="K32" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="23"/>
       <c r="M32" s="29"/>
       <c r="N32" s="30"/>
       <c r="O32" s="12"/>
@@ -5883,16 +5968,16 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="23"/>
       <c r="S32" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="W32" s="51"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="51"/>
+      <c r="V32" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="W32" s="49"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="49"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="31"/>
       <c r="AB32" s="32"/>
@@ -5914,22 +5999,22 @@
         <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="26"/>
       <c r="F33" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
-      <c r="K33" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="44"/>
+      <c r="K33" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="23"/>
       <c r="M33" s="29"/>
       <c r="N33" s="30"/>
       <c r="O33" s="12"/>
@@ -5937,12 +6022,12 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="23"/>
       <c r="S33" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="T33" s="47"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
+        <v>137</v>
+      </c>
+      <c r="T33" s="45"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
@@ -5966,20 +6051,20 @@
         <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="26"/>
       <c r="F34" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
       <c r="K34" s="43" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="29"/>
@@ -5989,7 +6074,7 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="23"/>
       <c r="S34" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="20"/>
@@ -6006,7 +6091,7 @@
       </c>
       <c r="AJ34" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN34" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6017,8 +6102,8 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>136</v>
+      <c r="B35" s="50" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -6030,15 +6115,15 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
-      <c r="K35" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="L35" s="23"/>
+      <c r="K35" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="44"/>
       <c r="M35" s="29"/>
       <c r="N35" s="30"/>
       <c r="O35" s="12"/>
       <c r="P35" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q35" s="24"/>
       <c r="R35" s="23"/>
@@ -6058,7 +6143,7 @@
       </c>
       <c r="AJ35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>REAL</v>
+        <v>NUMERIC</v>
       </c>
       <c r="AN35" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6070,7 +6155,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -6083,7 +6168,7 @@
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
       <c r="K36" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="29"/>
@@ -6120,20 +6205,20 @@
         <v>38</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
       <c r="F37" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
       <c r="K37" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="29"/>
@@ -6170,20 +6255,20 @@
         <v>39</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
       <c r="F38" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
       <c r="K38" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="29"/>
@@ -6220,20 +6305,20 @@
         <v>40</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
       <c r="F39" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26"/>
       <c r="K39" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L39" s="23"/>
       <c r="M39" s="29"/>
@@ -6270,20 +6355,20 @@
         <v>41</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26"/>
       <c r="F40" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26"/>
       <c r="K40" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="29"/>
@@ -6320,20 +6405,20 @@
         <v>42</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="26"/>
       <c r="F41" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
       <c r="K41" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="29"/>
@@ -6370,20 +6455,20 @@
         <v>43</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="26"/>
       <c r="K42" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L42" s="23"/>
       <c r="M42" s="29"/>
@@ -6420,20 +6505,20 @@
         <v>44</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="26"/>
       <c r="F43" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="29"/>
@@ -6470,20 +6555,20 @@
         <v>45</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="26"/>
       <c r="F44" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
       <c r="K44" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="29"/>
@@ -6520,20 +6605,20 @@
         <v>46</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="26"/>
       <c r="F45" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="26"/>
       <c r="K45" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L45" s="23"/>
       <c r="M45" s="29"/>
@@ -6570,20 +6655,20 @@
         <v>29</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="26"/>
       <c r="F46" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
       <c r="K46" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L46" s="23"/>
       <c r="M46" s="29">
@@ -6605,11 +6690,11 @@
       <c r="AA46" s="31"/>
       <c r="AB46" s="32"/>
       <c r="AE46" s="2" t="str">
-        <f>F46</f>
+        <f t="shared" ref="AE46:AE53" si="7">F46</f>
         <v>amount_of_sales</v>
       </c>
       <c r="AJ46" s="2" t="str">
-        <f>K46&amp;IF(M46&lt;&gt;"","("&amp;M46&amp;")","")</f>
+        <f t="shared" ref="AJ46:AJ53" si="8">K46&amp;IF(M46&lt;&gt;"","("&amp;M46&amp;")","")</f>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN46" s="2" t="str">
@@ -6622,20 +6707,20 @@
         <v>30</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="26"/>
       <c r="F47" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
       <c r="K47" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="29">
@@ -6657,11 +6742,11 @@
       <c r="AA47" s="31"/>
       <c r="AB47" s="32"/>
       <c r="AE47" s="2" t="str">
-        <f>F47</f>
+        <f t="shared" si="7"/>
         <v>net_income</v>
       </c>
       <c r="AJ47" s="2" t="str">
-        <f>K47&amp;IF(M47&lt;&gt;"","("&amp;M47&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN47" s="2" t="str">
@@ -6674,20 +6759,20 @@
         <v>31</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="26"/>
       <c r="F48" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
       <c r="K48" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L48" s="23"/>
       <c r="M48" s="29">
@@ -6709,11 +6794,11 @@
       <c r="AA48" s="31"/>
       <c r="AB48" s="32"/>
       <c r="AE48" s="2" t="str">
-        <f>F48</f>
+        <f t="shared" si="7"/>
         <v>sales_cf</v>
       </c>
       <c r="AJ48" s="2" t="str">
-        <f>K48&amp;IF(M48&lt;&gt;"","("&amp;M48&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN48" s="2" t="str">
@@ -6726,20 +6811,20 @@
         <v>32</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="26"/>
       <c r="F49" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="26"/>
       <c r="K49" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="29">
@@ -6761,11 +6846,11 @@
       <c r="AA49" s="31"/>
       <c r="AB49" s="32"/>
       <c r="AE49" s="2" t="str">
-        <f>F49</f>
+        <f t="shared" si="7"/>
         <v>total_assets</v>
       </c>
       <c r="AJ49" s="2" t="str">
-        <f>K49&amp;IF(M49&lt;&gt;"","("&amp;M49&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN49" s="2" t="str">
@@ -6778,20 +6863,20 @@
         <v>33</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="26"/>
       <c r="F50" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
       <c r="K50" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="29">
@@ -6813,11 +6898,11 @@
       <c r="AA50" s="31"/>
       <c r="AB50" s="32"/>
       <c r="AE50" s="2" t="str">
-        <f>F50</f>
+        <f t="shared" si="7"/>
         <v>cash_and_deposits</v>
       </c>
       <c r="AJ50" s="2" t="str">
-        <f>K50&amp;IF(M50&lt;&gt;"","("&amp;M50&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN50" s="2" t="str">
@@ -6830,20 +6915,20 @@
         <v>34</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="26"/>
       <c r="F51" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="26"/>
       <c r="K51" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L51" s="23"/>
       <c r="M51" s="29">
@@ -6865,11 +6950,11 @@
       <c r="AA51" s="31"/>
       <c r="AB51" s="32"/>
       <c r="AE51" s="2" t="str">
-        <f>F51</f>
+        <f t="shared" si="7"/>
         <v>total_capital</v>
       </c>
       <c r="AJ51" s="2" t="str">
-        <f>K51&amp;IF(M51&lt;&gt;"","("&amp;M51&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN51" s="2" t="str">
@@ -6882,20 +6967,20 @@
         <v>35</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="26"/>
       <c r="F52" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="26"/>
       <c r="K52" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L52" s="23"/>
       <c r="M52" s="29"/>
@@ -6915,11 +7000,11 @@
       <c r="AA52" s="31"/>
       <c r="AB52" s="32"/>
       <c r="AE52" s="2" t="str">
-        <f>F52</f>
+        <f t="shared" si="7"/>
         <v>average_annual_income</v>
       </c>
       <c r="AJ52" s="2" t="str">
-        <f>K52&amp;IF(M52&lt;&gt;"","("&amp;M52&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR</v>
       </c>
       <c r="AN52" s="2" t="str">
@@ -6932,20 +7017,20 @@
         <v>47</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="26"/>
       <c r="F53" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="29">
@@ -6967,11 +7052,11 @@
       <c r="AA53" s="31"/>
       <c r="AB53" s="32"/>
       <c r="AE53" s="2" t="str">
-        <f>F53</f>
+        <f t="shared" si="7"/>
         <v>delisting_date</v>
       </c>
       <c r="AJ53" s="2" t="str">
-        <f>K53&amp;IF(M53&lt;&gt;"","("&amp;M53&amp;")","")</f>
+        <f t="shared" si="8"/>
         <v>VARCHAR(10)</v>
       </c>
       <c r="AN53" s="2" t="str">
@@ -6984,20 +7069,20 @@
         <v>48</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="26"/>
       <c r="F54" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="26"/>
       <c r="K54" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="29">
@@ -7009,7 +7094,7 @@
       <c r="Q54" s="24"/>
       <c r="R54" s="23"/>
       <c r="S54" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T54" s="15"/>
       <c r="U54" s="20"/>
@@ -7404,7 +7489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7427,209 +7512,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="A1" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="38"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
+      <c r="P1" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="82"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
       <c r="Y1" s="35"/>
-      <c r="Z1" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="93"/>
+      <c r="Z1" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="91"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
-      <c r="P2" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
+      <c r="P2" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82"/>
       <c r="T2" s="39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="96"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="94"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="84"/>
+      <c r="P3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="36"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="99"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="97"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="110" t="s">
+      <c r="A5" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="115" t="s">
+      <c r="R5" s="104"/>
+      <c r="S5" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="106"/>
-      <c r="S5" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="106"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="104"/>
       <c r="AD5" s="2" t="str">
         <f>"-- " &amp; J2</f>
         <v>-- 上場状況</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="126" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="131"/>
+      <c r="L6" s="129"/>
       <c r="M6" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="109"/>
+        <v>51</v>
+      </c>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="107"/>
       <c r="AD6" s="2" t="str">
         <f>"CREATE TABLE " &amp; J3 &amp;" ("</f>
         <v>CREATE TABLE ListingStatus (</v>
@@ -7640,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -7653,7 +7738,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
@@ -7661,7 +7746,7 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="24"/>
@@ -7694,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -7707,7 +7792,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="29">
@@ -7715,7 +7800,7 @@
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="24"/>
@@ -7748,7 +7833,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -7761,7 +7846,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="29">
@@ -7770,7 +7855,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="23"/>
@@ -7802,20 +7887,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="29">
@@ -7854,20 +7939,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L11" s="23"/>
       <c r="M11" s="41">
@@ -7879,7 +7964,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
       <c r="S11" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -7908,20 +7993,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="41">
@@ -7933,7 +8018,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="23"/>
       <c r="S12" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="20"/>
@@ -7962,20 +8047,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="F13" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="29">
@@ -7987,7 +8072,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="23"/>
       <c r="S13" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="20"/>

--- a/sql/テーブル定義.xlsx
+++ b/sql/テーブル定義.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studio\SourceRepository\WindowsService\sql\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388AF9C-EA32-46C4-9058-85E800AFA4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2100" windowWidth="21525" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2100" windowWidth="21525" windowHeight="13320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="3" r:id="rId1"/>
@@ -23,9 +17,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">上場状況!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">銘柄基本情報!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
   <si>
     <t>symbol</t>
   </si>
@@ -311,13 +305,6 @@
   </si>
   <si>
     <t>Ver</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -816,11 +803,18 @@
     <t>year_change_ratio</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1362,7 +1356,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1759,13 +1753,19 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2035,14 +2035,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2303,7 +2303,7 @@
       <c r="M8" s="56"/>
       <c r="N8" s="57"/>
       <c r="O8" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" s="56"/>
       <c r="Q8" s="56"/>
@@ -4412,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4486,7 +4486,7 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
       <c r="J2" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -4500,11 +4500,11 @@
       <c r="R2" s="81"/>
       <c r="S2" s="82"/>
       <c r="T2" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
@@ -4526,7 +4526,7 @@
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
       <c r="J3" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -4555,7 +4555,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
@@ -4566,7 +4566,7 @@
       <c r="I5" s="109"/>
       <c r="J5" s="110"/>
       <c r="K5" s="108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L5" s="109"/>
       <c r="M5" s="109"/>
@@ -4574,11 +4574,11 @@
       <c r="O5" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="113" t="s">
-        <v>50</v>
+      <c r="P5" s="133" t="s">
+        <v>160</v>
       </c>
       <c r="Q5" s="102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R5" s="104"/>
       <c r="S5" s="102" t="s">
@@ -4601,30 +4601,30 @@
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="112"/>
       <c r="B6" s="124" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="125"/>
       <c r="D6" s="125"/>
       <c r="E6" s="126"/>
       <c r="F6" s="127" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="127"/>
       <c r="H6" s="127"/>
       <c r="I6" s="127"/>
       <c r="J6" s="127"/>
       <c r="K6" s="128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="129"/>
       <c r="M6" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
+      <c r="P6" s="134"/>
       <c r="Q6" s="105"/>
       <c r="R6" s="107"/>
       <c r="S6" s="105"/>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4660,7 +4660,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="24" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
@@ -4668,9 +4668,11 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="23"/>
       <c r="S7" s="19"/>
@@ -4689,7 +4691,7 @@
       </c>
       <c r="AJ7" s="2" t="str">
         <f>K7&amp;IF(M7&lt;&gt;"","("&amp;M7&amp;")","")</f>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN7" s="2" t="str">
         <f>","</f>
@@ -4701,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -4714,7 +4716,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="29">
@@ -4741,7 +4743,7 @@
       </c>
       <c r="AJ8" s="2" t="str">
         <f t="shared" ref="AJ8:AJ15" si="1">K8&amp;IF(M8&lt;&gt;"","("&amp;M8&amp;")","")</f>
-        <v>VARCHAR(50)</v>
+        <v>TEXT(50)</v>
       </c>
       <c r="AN8" s="2" t="str">
         <f t="shared" ref="AN8:AN54" si="2">","</f>
@@ -4753,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4766,7 +4768,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="24" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="29">
@@ -4793,7 +4795,7 @@
       </c>
       <c r="AJ9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VARCHAR(30)</v>
+        <v>TEXT(30)</v>
       </c>
       <c r="AN9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4805,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4818,7 +4820,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="40">
@@ -4830,7 +4832,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="23"/>
       <c r="S10" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="20"/>
@@ -4847,7 +4849,7 @@
       </c>
       <c r="AJ10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN10" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4859,20 +4861,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L11" s="23"/>
       <c r="M11" s="40">
@@ -4884,7 +4886,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
       <c r="S11" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -4901,7 +4903,7 @@
       </c>
       <c r="AJ11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN11" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4913,7 +4915,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -4926,7 +4928,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="29"/>
@@ -4951,7 +4953,7 @@
       </c>
       <c r="AJ12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -4963,7 +4965,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -4976,7 +4978,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="29"/>
@@ -5001,7 +5003,7 @@
       </c>
       <c r="AJ13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN13" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5013,13 +5015,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -5036,7 +5038,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="23"/>
       <c r="S14" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="20"/>
@@ -5065,7 +5067,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -5078,7 +5080,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
       <c r="K15" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="40">
@@ -5090,7 +5092,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="23"/>
       <c r="S15" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="20"/>
@@ -5107,7 +5109,7 @@
       </c>
       <c r="AJ15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN15" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5119,13 +5121,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -5142,7 +5144,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="20"/>
@@ -5171,13 +5173,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -5194,7 +5196,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="23"/>
       <c r="S17" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="20"/>
@@ -5223,13 +5225,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="F18" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -5246,7 +5248,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="23"/>
       <c r="S18" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="20"/>
@@ -5275,7 +5277,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -5298,7 +5300,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="23"/>
       <c r="S19" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="20"/>
@@ -5327,7 +5329,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -5340,7 +5342,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
       <c r="K20" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="29"/>
@@ -5350,7 +5352,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="23"/>
       <c r="S20" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="20"/>
@@ -5379,13 +5381,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -5429,20 +5431,20 @@
         <v>11</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
       <c r="K22" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="29"/>
@@ -5479,13 +5481,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -5502,7 +5504,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="23"/>
       <c r="S23" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="20"/>
@@ -5531,7 +5533,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -5554,7 +5556,7 @@
       <c r="Q24" s="24"/>
       <c r="R24" s="23"/>
       <c r="S24" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="20"/>
@@ -5583,13 +5585,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -5606,7 +5608,7 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="23"/>
       <c r="S25" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="20"/>
@@ -5635,13 +5637,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26"/>
       <c r="F26" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -5658,7 +5660,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="23"/>
       <c r="S26" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="20"/>
@@ -5687,7 +5689,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -5737,7 +5739,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -5760,7 +5762,7 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="23"/>
       <c r="S28" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="20"/>
@@ -5789,7 +5791,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -5812,7 +5814,7 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="23"/>
       <c r="S29" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="20"/>
@@ -5841,7 +5843,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -5864,7 +5866,7 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="23"/>
       <c r="S30" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="20"/>
@@ -5893,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -5916,7 +5918,7 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="23"/>
       <c r="S31" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="20"/>
@@ -5945,13 +5947,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
       <c r="F32" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -5968,12 +5970,12 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="23"/>
       <c r="S32" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="20"/>
       <c r="V32" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W32" s="49"/>
       <c r="X32" s="48"/>
@@ -5999,7 +6001,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -6022,7 +6024,7 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="23"/>
       <c r="S33" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T33" s="45"/>
       <c r="U33" s="46"/>
@@ -6051,13 +6053,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="26"/>
       <c r="F34" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -6074,7 +6076,7 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="23"/>
       <c r="S34" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="20"/>
@@ -6103,7 +6105,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -6123,7 +6125,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="12"/>
       <c r="P35" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q35" s="24"/>
       <c r="R35" s="23"/>
@@ -6155,7 +6157,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -6168,7 +6170,7 @@
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
       <c r="K36" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="29"/>
@@ -6193,7 +6195,7 @@
       </c>
       <c r="AJ36" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN36" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6205,7 +6207,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -6218,7 +6220,7 @@
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
       <c r="K37" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="29"/>
@@ -6243,7 +6245,7 @@
       </c>
       <c r="AJ37" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN37" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6255,20 +6257,20 @@
         <v>39</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
       <c r="F38" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
       <c r="K38" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="29"/>
@@ -6305,7 +6307,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -6318,7 +6320,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="26"/>
       <c r="K39" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L39" s="23"/>
       <c r="M39" s="29"/>
@@ -6343,7 +6345,7 @@
       </c>
       <c r="AJ39" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN39" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6355,7 +6357,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -6368,7 +6370,7 @@
       <c r="I40" s="25"/>
       <c r="J40" s="26"/>
       <c r="K40" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="29"/>
@@ -6393,7 +6395,7 @@
       </c>
       <c r="AJ40" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN40" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6405,7 +6407,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -6418,7 +6420,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
       <c r="K41" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="29"/>
@@ -6443,7 +6445,7 @@
       </c>
       <c r="AJ41" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN41" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6455,7 +6457,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -6468,7 +6470,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="26"/>
       <c r="K42" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L42" s="23"/>
       <c r="M42" s="29"/>
@@ -6493,7 +6495,7 @@
       </c>
       <c r="AJ42" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN42" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6505,7 +6507,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -6518,7 +6520,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="29"/>
@@ -6543,7 +6545,7 @@
       </c>
       <c r="AJ43" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN43" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6555,7 +6557,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -6568,7 +6570,7 @@
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
       <c r="K44" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="29"/>
@@ -6593,7 +6595,7 @@
       </c>
       <c r="AJ44" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN44" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6605,7 +6607,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -6618,7 +6620,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="26"/>
       <c r="K45" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L45" s="23"/>
       <c r="M45" s="29"/>
@@ -6643,7 +6645,7 @@
       </c>
       <c r="AJ45" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN45" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6655,7 +6657,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -6668,7 +6670,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
       <c r="K46" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L46" s="23"/>
       <c r="M46" s="29">
@@ -6695,7 +6697,7 @@
       </c>
       <c r="AJ46" s="2" t="str">
         <f t="shared" ref="AJ46:AJ53" si="8">K46&amp;IF(M46&lt;&gt;"","("&amp;M46&amp;")","")</f>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN46" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6707,7 +6709,7 @@
         <v>30</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -6720,7 +6722,7 @@
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
       <c r="K47" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="29">
@@ -6747,7 +6749,7 @@
       </c>
       <c r="AJ47" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN47" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6759,7 +6761,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -6772,7 +6774,7 @@
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
       <c r="K48" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L48" s="23"/>
       <c r="M48" s="29">
@@ -6799,7 +6801,7 @@
       </c>
       <c r="AJ48" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN48" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6811,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -6824,7 +6826,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="26"/>
       <c r="K49" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="29">
@@ -6851,7 +6853,7 @@
       </c>
       <c r="AJ49" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN49" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6863,7 +6865,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -6876,7 +6878,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
       <c r="K50" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="29">
@@ -6903,7 +6905,7 @@
       </c>
       <c r="AJ50" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN50" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6915,7 +6917,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -6928,7 +6930,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="26"/>
       <c r="K51" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L51" s="23"/>
       <c r="M51" s="29">
@@ -6955,7 +6957,7 @@
       </c>
       <c r="AJ51" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN51" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6967,7 +6969,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -6980,7 +6982,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="26"/>
       <c r="K52" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L52" s="23"/>
       <c r="M52" s="29"/>
@@ -7005,7 +7007,7 @@
       </c>
       <c r="AJ52" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR</v>
+        <v>TEXT</v>
       </c>
       <c r="AN52" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7017,20 +7019,20 @@
         <v>47</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="26"/>
       <c r="F53" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="29">
@@ -7057,7 +7059,7 @@
       </c>
       <c r="AJ53" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN53" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7069,7 +7071,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -7082,7 +7084,7 @@
       <c r="I54" s="25"/>
       <c r="J54" s="26"/>
       <c r="K54" s="24" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="29">
@@ -7094,7 +7096,7 @@
       <c r="Q54" s="24"/>
       <c r="R54" s="23"/>
       <c r="S54" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T54" s="15"/>
       <c r="U54" s="20"/>
@@ -7111,7 +7113,7 @@
       </c>
       <c r="AJ54" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>VARCHAR(10)</v>
+        <v>TEXT(10)</v>
       </c>
       <c r="AN54" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7489,7 +7491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7564,7 +7566,7 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
       <c r="J2" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -7578,11 +7580,11 @@
       <c r="R2" s="81"/>
       <c r="S2" s="82"/>
       <c r="T2" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
@@ -7604,7 +7606,7 @@
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
       <c r="J3" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -7633,7 +7635,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
@@ -7644,7 +7646,7 @@
       <c r="I5" s="109"/>
       <c r="J5" s="110"/>
       <c r="K5" s="108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L5" s="109"/>
       <c r="M5" s="109"/>
@@ -7656,7 +7658,7 @@
         <v>50</v>
       </c>
       <c r="Q5" s="102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R5" s="104"/>
       <c r="S5" s="102" t="s">
@@ -7679,24 +7681,24 @@
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="112"/>
       <c r="B6" s="124" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="125"/>
       <c r="D6" s="125"/>
       <c r="E6" s="126"/>
       <c r="F6" s="127" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="127"/>
       <c r="H6" s="127"/>
       <c r="I6" s="127"/>
       <c r="J6" s="127"/>
       <c r="K6" s="128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="129"/>
       <c r="M6" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>51</v>
@@ -7725,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -7738,7 +7740,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
@@ -7746,7 +7748,7 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="24"/>
@@ -7779,7 +7781,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -7792,7 +7794,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="29">
@@ -7800,7 +7802,7 @@
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="24"/>
@@ -7833,7 +7835,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -7846,7 +7848,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="29">
@@ -7855,7 +7857,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="23"/>
@@ -7887,20 +7889,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="29">
@@ -7939,20 +7941,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" s="23"/>
       <c r="M11" s="41">
@@ -7964,7 +7966,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
       <c r="S11" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -7993,20 +7995,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="41">
@@ -8018,7 +8020,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="23"/>
       <c r="S12" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="20"/>
@@ -8047,20 +8049,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="F13" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="29">
@@ -8072,7 +8074,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="23"/>
       <c r="S13" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="20"/>

--- a/sql/テーブル定義.xlsx
+++ b/sql/テーブル定義.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="159">
   <si>
     <t>symbol</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>year_low</t>
-  </si>
-  <si>
-    <t>NUMERIC</t>
   </si>
   <si>
     <t>amount_of_sales</t>
@@ -564,10 +561,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>NUMERIC</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>company_statistics</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -623,10 +616,6 @@
   </si>
   <si>
     <t>単位転換</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>発行済株数</t>
@@ -809,6 +798,9 @@
   <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>REAL</t>
   </si>
 </sst>
 </file>
@@ -1511,6 +1503,132 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1520,146 +1638,80 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,66 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2035,7 +2027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2057,199 +2049,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="75" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="80" t="s">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83" t="s">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AP1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="89" t="s">
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="77"/>
+    </row>
+    <row r="2" spans="1:44" s="1" customFormat="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="91"/>
-    </row>
-    <row r="2" spans="1:44" s="1" customFormat="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="75" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="98" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80" t="s">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="99" t="s">
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="80"/>
+    </row>
+    <row r="3" spans="1:44" s="1" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="94"/>
-    </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="98" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="97"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="83"/>
     </row>
     <row r="4" spans="1:44" ht="7.5" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:44" ht="17.25">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1"/>
     <row r="7" spans="1:44">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="62" t="s">
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2273,1401 +2265,1401 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="63"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="64"/>
+      <c r="AL7" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="93"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="65">
+      <c r="A8" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97">
         <v>44683</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="57"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="99"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="57"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="99"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="57"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="99"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="57"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="100"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="99"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="57"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="100"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="98"/>
+      <c r="AP12" s="98"/>
+      <c r="AQ12" s="98"/>
+      <c r="AR12" s="99"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="57"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="100"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="99"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="57"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="98"/>
+      <c r="AR14" s="99"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="57"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="100"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="98"/>
+      <c r="AR15" s="99"/>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="57"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="100"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="99"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="57"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="100"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="98"/>
+      <c r="AR17" s="99"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="57"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="99"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="57"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="99"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="57"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="99"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="57"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="99"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="57"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="99"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="57"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="57"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="99"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="57"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="99"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="57"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="99"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="57"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="99"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="57"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="99"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="57"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="99"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="57"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="99"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="99"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="57"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="99"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="57"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="99"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AQ31" s="98"/>
+      <c r="AR31" s="99"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="57"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="100"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AQ32" s="98"/>
+      <c r="AR32" s="99"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="57"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="100"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="AR33" s="99"/>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="57"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="98"/>
+      <c r="AC34" s="98"/>
+      <c r="AD34" s="98"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" s="98"/>
+      <c r="AO34" s="98"/>
+      <c r="AP34" s="98"/>
+      <c r="AQ34" s="98"/>
+      <c r="AR34" s="99"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="57"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="98"/>
+      <c r="AO35" s="98"/>
+      <c r="AP35" s="98"/>
+      <c r="AQ35" s="98"/>
+      <c r="AR35" s="99"/>
     </row>
     <row r="36" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="57"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="98"/>
+      <c r="W36" s="98"/>
+      <c r="X36" s="98"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
+      <c r="AB36" s="98"/>
+      <c r="AC36" s="98"/>
+      <c r="AD36" s="98"/>
+      <c r="AE36" s="98"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="98"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="98"/>
+      <c r="AN36" s="98"/>
+      <c r="AO36" s="98"/>
+      <c r="AP36" s="98"/>
+      <c r="AQ36" s="98"/>
+      <c r="AR36" s="99"/>
     </row>
     <row r="37" spans="1:44">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="56"/>
-      <c r="AQ37" s="56"/>
-      <c r="AR37" s="57"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="98"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="98"/>
+      <c r="W37" s="98"/>
+      <c r="X37" s="98"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="98"/>
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="98"/>
+      <c r="AE37" s="98"/>
+      <c r="AF37" s="98"/>
+      <c r="AG37" s="98"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="99"/>
+      <c r="AL37" s="100"/>
+      <c r="AM37" s="98"/>
+      <c r="AN37" s="98"/>
+      <c r="AO37" s="98"/>
+      <c r="AP37" s="98"/>
+      <c r="AQ37" s="98"/>
+      <c r="AR37" s="99"/>
     </row>
     <row r="38" spans="1:44">
       <c r="S38" s="3"/>
@@ -4229,6 +4221,160 @@
     </row>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="O37:AK37"/>
+    <mergeCell ref="AL37:AR37"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="O35:AK35"/>
+    <mergeCell ref="AL35:AR35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="O36:AK36"/>
+    <mergeCell ref="AL36:AR36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="O33:AK33"/>
+    <mergeCell ref="AL33:AR33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="O34:AK34"/>
+    <mergeCell ref="AL34:AR34"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="O31:AK31"/>
+    <mergeCell ref="AL31:AR31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="O32:AK32"/>
+    <mergeCell ref="AL32:AR32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="O29:AK29"/>
+    <mergeCell ref="AL29:AR29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="O30:AK30"/>
+    <mergeCell ref="AL30:AR30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="O27:AK27"/>
+    <mergeCell ref="AL27:AR27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="O28:AK28"/>
+    <mergeCell ref="AL28:AR28"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="O25:AK25"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:AK26"/>
+    <mergeCell ref="AL26:AR26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:AK23"/>
+    <mergeCell ref="AL23:AR23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:AK24"/>
+    <mergeCell ref="AL24:AR24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:AK21"/>
+    <mergeCell ref="AL21:AR21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:AK22"/>
+    <mergeCell ref="AL22:AR22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:AK19"/>
+    <mergeCell ref="AL19:AR19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:AK20"/>
+    <mergeCell ref="AL20:AR20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:AK17"/>
+    <mergeCell ref="AL17:AR17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:AK18"/>
+    <mergeCell ref="AL18:AR18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:AK15"/>
+    <mergeCell ref="AL15:AR15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:AK16"/>
+    <mergeCell ref="AL16:AR16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:AK13"/>
+    <mergeCell ref="AL13:AR13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:AK14"/>
+    <mergeCell ref="AL14:AR14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:AK11"/>
+    <mergeCell ref="AL11:AR11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:AK12"/>
+    <mergeCell ref="AL12:AR12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:AK9"/>
+    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:AK10"/>
+    <mergeCell ref="AL10:AR10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:AK8"/>
+    <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:X1"/>
@@ -4246,160 +4392,6 @@
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:AK8"/>
-    <mergeCell ref="AL8:AR8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:AK9"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:AK10"/>
-    <mergeCell ref="AL10:AR10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:AK11"/>
-    <mergeCell ref="AL11:AR11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:AK12"/>
-    <mergeCell ref="AL12:AR12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:AK13"/>
-    <mergeCell ref="AL13:AR13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:AK14"/>
-    <mergeCell ref="AL14:AR14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:AK15"/>
-    <mergeCell ref="AL15:AR15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:AK16"/>
-    <mergeCell ref="AL16:AR16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:AK17"/>
-    <mergeCell ref="AL17:AR17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:AK19"/>
-    <mergeCell ref="AL19:AR19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:AK20"/>
-    <mergeCell ref="AL20:AR20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:AK21"/>
-    <mergeCell ref="AL21:AR21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:AK22"/>
-    <mergeCell ref="AL22:AR22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:AK23"/>
-    <mergeCell ref="AL23:AR23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:AK24"/>
-    <mergeCell ref="AL24:AR24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:AK25"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:AK26"/>
-    <mergeCell ref="AL26:AR26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="O27:AK27"/>
-    <mergeCell ref="AL27:AR27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="O28:AK28"/>
-    <mergeCell ref="AL28:AR28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="O29:AK29"/>
-    <mergeCell ref="AL29:AR29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="O30:AK30"/>
-    <mergeCell ref="AL30:AR30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="O31:AK31"/>
-    <mergeCell ref="AL31:AR31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="O32:AK32"/>
-    <mergeCell ref="AL32:AR32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="O33:AK33"/>
-    <mergeCell ref="AL33:AR33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="O34:AK34"/>
-    <mergeCell ref="AL34:AR34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="O37:AK37"/>
-    <mergeCell ref="AL37:AR37"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="O35:AK35"/>
-    <mergeCell ref="AL35:AR35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="O36:AK36"/>
-    <mergeCell ref="AL36:AR36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4434,209 +4426,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="38"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
       <c r="Y1" s="35"/>
-      <c r="Z1" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="89" t="s">
+      <c r="Z1" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="77"/>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="91"/>
-    </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
-      <c r="P2" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82"/>
+      <c r="P2" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="94"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="80"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="P3" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="36"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="97"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="83"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" s="104"/>
-      <c r="S5" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="104"/>
+      <c r="P5" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="124"/>
+      <c r="S5" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="124"/>
       <c r="AD5" s="2" t="str">
         <f>"-- " &amp; J2</f>
         <v>-- 銘柄基本情報</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="119"/>
+      <c r="M6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="114"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="107"/>
+        <v>50</v>
+      </c>
+      <c r="O6" s="134"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="127"/>
       <c r="AD6" s="2" t="str">
         <f>"CREATE TABLE " &amp; J3 &amp;" ("</f>
         <v>CREATE TABLE company_statistics (</v>
@@ -4647,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4660,7 +4652,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
@@ -4668,10 +4660,10 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="23"/>
@@ -4703,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -4716,7 +4708,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="29">
@@ -4755,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4768,7 +4760,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="29">
@@ -4807,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4820,7 +4812,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="40">
@@ -4832,7 +4824,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="23"/>
       <c r="S10" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="20"/>
@@ -4861,20 +4853,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L11" s="23"/>
       <c r="M11" s="40">
@@ -4886,7 +4878,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
       <c r="S11" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -4915,7 +4907,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -4928,7 +4920,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="29"/>
@@ -4965,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -4978,7 +4970,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="29"/>
@@ -5015,20 +5007,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
       <c r="K14" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="29"/>
@@ -5038,7 +5030,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="23"/>
       <c r="S14" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="20"/>
@@ -5055,7 +5047,7 @@
       </c>
       <c r="AJ14" s="2" t="str">
         <f>K14&amp;IF(M14&lt;&gt;"","("&amp;M14&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN14" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5067,7 +5059,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -5080,7 +5072,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
       <c r="K15" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="40">
@@ -5092,7 +5084,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="23"/>
       <c r="S15" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="20"/>
@@ -5121,20 +5113,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
       <c r="K16" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="29"/>
@@ -5144,7 +5136,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="20"/>
@@ -5161,7 +5153,7 @@
       </c>
       <c r="AJ16" s="2" t="str">
         <f t="shared" ref="AJ16:AJ20" si="4">K16&amp;IF(M16&lt;&gt;"","("&amp;M16&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN16" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5173,22 +5165,22 @@
         <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="23"/>
+      <c r="K17" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="44"/>
       <c r="M17" s="29"/>
       <c r="N17" s="30"/>
       <c r="O17" s="12"/>
@@ -5196,7 +5188,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="23"/>
       <c r="S17" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="20"/>
@@ -5213,7 +5205,7 @@
       </c>
       <c r="AJ17" s="2" t="str">
         <f>K17&amp;IF(M17&lt;&gt;"","("&amp;M17&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN17" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5225,22 +5217,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="F18" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="23"/>
+      <c r="K18" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="44"/>
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
       <c r="O18" s="12"/>
@@ -5248,7 +5240,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="23"/>
       <c r="S18" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="20"/>
@@ -5265,7 +5257,7 @@
       </c>
       <c r="AJ18" s="2" t="str">
         <f>K18&amp;IF(M18&lt;&gt;"","("&amp;M18&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5277,7 +5269,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -5289,10 +5281,10 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="23"/>
+      <c r="K19" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="44"/>
       <c r="M19" s="29"/>
       <c r="N19" s="30"/>
       <c r="O19" s="12"/>
@@ -5300,7 +5292,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="23"/>
       <c r="S19" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="20"/>
@@ -5317,7 +5309,7 @@
       </c>
       <c r="AJ19" s="2" t="str">
         <f>K19&amp;IF(M19&lt;&gt;"","("&amp;M19&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN19" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5329,7 +5321,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -5341,10 +5333,10 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="23"/>
+      <c r="K20" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="44"/>
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="12"/>
@@ -5352,7 +5344,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="23"/>
       <c r="S20" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="20"/>
@@ -5369,7 +5361,7 @@
       </c>
       <c r="AJ20" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5381,22 +5373,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="23"/>
+      <c r="K21" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="44"/>
       <c r="M21" s="29"/>
       <c r="N21" s="30"/>
       <c r="O21" s="12"/>
@@ -5419,7 +5411,7 @@
       </c>
       <c r="AJ21" s="2" t="str">
         <f>K21&amp;IF(M21&lt;&gt;"","("&amp;M21&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN21" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5431,20 +5423,20 @@
         <v>11</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
       <c r="K22" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="29"/>
@@ -5481,20 +5473,20 @@
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
       <c r="K23" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="29"/>
@@ -5504,7 +5496,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="23"/>
       <c r="S23" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="20"/>
@@ -5521,7 +5513,7 @@
       </c>
       <c r="AJ23" s="2" t="str">
         <f t="shared" ref="AJ23:AJ54" si="5">K23&amp;IF(M23&lt;&gt;"","("&amp;M23&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN23" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5533,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -5546,7 +5538,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
       <c r="K24" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="29"/>
@@ -5556,7 +5548,7 @@
       <c r="Q24" s="24"/>
       <c r="R24" s="23"/>
       <c r="S24" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="20"/>
@@ -5573,7 +5565,7 @@
       </c>
       <c r="AJ24" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN24" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5585,20 +5577,20 @@
         <v>18</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
       <c r="K25" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="29"/>
@@ -5608,7 +5600,7 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="23"/>
       <c r="S25" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="20"/>
@@ -5625,7 +5617,7 @@
       </c>
       <c r="AJ25" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN25" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5637,20 +5629,20 @@
         <v>19</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26"/>
       <c r="F26" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
       <c r="K26" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="29"/>
@@ -5660,7 +5652,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="23"/>
       <c r="S26" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="20"/>
@@ -5677,7 +5669,7 @@
       </c>
       <c r="AJ26" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN26" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5689,7 +5681,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -5702,7 +5694,7 @@
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
       <c r="K27" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="29"/>
@@ -5727,7 +5719,7 @@
       </c>
       <c r="AJ27" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN27" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5739,7 +5731,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -5752,7 +5744,7 @@
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
       <c r="K28" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="29"/>
@@ -5762,7 +5754,7 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="23"/>
       <c r="S28" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="20"/>
@@ -5779,7 +5771,7 @@
       </c>
       <c r="AJ28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN28" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5791,7 +5783,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -5804,7 +5796,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
       <c r="K29" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="29"/>
@@ -5814,7 +5806,7 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="23"/>
       <c r="S29" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="20"/>
@@ -5831,7 +5823,7 @@
       </c>
       <c r="AJ29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN29" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5843,7 +5835,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -5856,7 +5848,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
       <c r="K30" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="29"/>
@@ -5866,7 +5858,7 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="23"/>
       <c r="S30" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="20"/>
@@ -5883,7 +5875,7 @@
       </c>
       <c r="AJ30" s="2" t="str">
         <f>K30&amp;IF(M30&lt;&gt;"","("&amp;M30&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN30" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5895,7 +5887,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -5908,7 +5900,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
       <c r="K31" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="29"/>
@@ -5918,7 +5910,7 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="23"/>
       <c r="S31" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="20"/>
@@ -5935,7 +5927,7 @@
       </c>
       <c r="AJ31" s="2" t="str">
         <f>K31&amp;IF(M31&lt;&gt;"","("&amp;M31&amp;")","")</f>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN31" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5947,22 +5939,22 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
       <c r="F32" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="23"/>
+      <c r="K32" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32" s="44"/>
       <c r="M32" s="29"/>
       <c r="N32" s="30"/>
       <c r="O32" s="12"/>
@@ -5970,12 +5962,12 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="23"/>
       <c r="S32" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="20"/>
       <c r="V32" s="48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W32" s="49"/>
       <c r="X32" s="48"/>
@@ -5989,7 +5981,7 @@
       </c>
       <c r="AJ32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN32" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6001,7 +5993,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -6013,10 +6005,10 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
-      <c r="K33" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="23"/>
+      <c r="K33" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L33" s="44"/>
       <c r="M33" s="29"/>
       <c r="N33" s="30"/>
       <c r="O33" s="12"/>
@@ -6024,7 +6016,7 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="23"/>
       <c r="S33" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T33" s="45"/>
       <c r="U33" s="46"/>
@@ -6041,7 +6033,7 @@
       </c>
       <c r="AJ33" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN33" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6053,20 +6045,20 @@
         <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="26"/>
       <c r="F34" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
       <c r="K34" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="29"/>
@@ -6076,7 +6068,7 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="23"/>
       <c r="S34" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="20"/>
@@ -6093,7 +6085,7 @@
       </c>
       <c r="AJ34" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN34" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6105,7 +6097,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -6118,15 +6110,13 @@
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
       <c r="K35" s="43" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="29"/>
       <c r="N35" s="30"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="P35" s="13"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="23"/>
       <c r="S35" s="24"/>
@@ -6145,7 +6135,7 @@
       </c>
       <c r="AJ35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>NUMERIC</v>
+        <v>REAL</v>
       </c>
       <c r="AN35" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6157,7 +6147,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -6170,7 +6160,7 @@
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
       <c r="K36" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="29"/>
@@ -6207,20 +6197,20 @@
         <v>38</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
       <c r="F37" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
       <c r="K37" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="29"/>
@@ -6257,20 +6247,20 @@
         <v>39</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
       <c r="F38" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
       <c r="K38" s="24" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="29"/>
@@ -6295,7 +6285,7 @@
       </c>
       <c r="AJ38" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>BIGINT</v>
+        <v>INTEGER</v>
       </c>
       <c r="AN38" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6307,20 +6297,20 @@
         <v>40</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
       <c r="F39" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26"/>
       <c r="K39" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L39" s="23"/>
       <c r="M39" s="29"/>
@@ -6357,20 +6347,20 @@
         <v>41</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26"/>
       <c r="F40" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26"/>
       <c r="K40" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="29"/>
@@ -6407,20 +6397,20 @@
         <v>42</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="26"/>
       <c r="F41" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
       <c r="K41" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="29"/>
@@ -6457,20 +6447,20 @@
         <v>43</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="26"/>
       <c r="K42" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L42" s="23"/>
       <c r="M42" s="29"/>
@@ -6507,20 +6497,20 @@
         <v>44</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="26"/>
       <c r="F43" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="29"/>
@@ -6557,20 +6547,20 @@
         <v>45</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="26"/>
       <c r="F44" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
       <c r="K44" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="29"/>
@@ -6607,20 +6597,20 @@
         <v>46</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="26"/>
       <c r="F45" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="26"/>
       <c r="K45" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L45" s="23"/>
       <c r="M45" s="29"/>
@@ -6657,20 +6647,20 @@
         <v>29</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="26"/>
       <c r="F46" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
       <c r="K46" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L46" s="23"/>
       <c r="M46" s="29">
@@ -6709,20 +6699,20 @@
         <v>30</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="26"/>
       <c r="F47" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
       <c r="K47" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="29">
@@ -6761,20 +6751,20 @@
         <v>31</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="26"/>
       <c r="F48" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
       <c r="K48" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L48" s="23"/>
       <c r="M48" s="29">
@@ -6813,20 +6803,20 @@
         <v>32</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="26"/>
       <c r="F49" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="26"/>
       <c r="K49" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="29">
@@ -6865,20 +6855,20 @@
         <v>33</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="26"/>
       <c r="F50" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
       <c r="K50" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="29">
@@ -6917,20 +6907,20 @@
         <v>34</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="26"/>
       <c r="F51" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="26"/>
       <c r="K51" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L51" s="23"/>
       <c r="M51" s="29">
@@ -6969,20 +6959,20 @@
         <v>35</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="26"/>
       <c r="F52" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="26"/>
       <c r="K52" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L52" s="23"/>
       <c r="M52" s="29"/>
@@ -7019,20 +7009,20 @@
         <v>47</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="26"/>
       <c r="F53" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="29">
@@ -7071,20 +7061,20 @@
         <v>48</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="26"/>
       <c r="F54" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="26"/>
       <c r="K54" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="29">
@@ -7096,7 +7086,7 @@
       <c r="Q54" s="24"/>
       <c r="R54" s="23"/>
       <c r="S54" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T54" s="15"/>
       <c r="U54" s="20"/>
@@ -7460,6 +7450,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S5:AB6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="AA1:AB3"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="P2:S2"/>
@@ -7468,17 +7469,6 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="S5:AB6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="Q5:R6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7497,7 +7487,7 @@
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -7514,209 +7504,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="38"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
       <c r="Y1" s="35"/>
-      <c r="Z1" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="89" t="s">
+      <c r="Z1" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="77"/>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="91"/>
-    </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
-      <c r="P2" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82"/>
+      <c r="P2" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="94"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="80"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="P3" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="36"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="97"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="83"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="113" t="s">
+      <c r="P5" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" s="104"/>
-      <c r="S5" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="104"/>
+      <c r="Q5" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="124"/>
+      <c r="S5" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="124"/>
       <c r="AD5" s="2" t="str">
         <f>"-- " &amp; J2</f>
         <v>-- 上場状況</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="119"/>
+      <c r="M6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="107"/>
+        <v>50</v>
+      </c>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="127"/>
       <c r="AD6" s="2" t="str">
         <f>"CREATE TABLE " &amp; J3 &amp;" ("</f>
         <v>CREATE TABLE ListingStatus (</v>
@@ -7727,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -7740,7 +7730,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="27">
@@ -7748,7 +7738,7 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="24"/>
@@ -7781,7 +7771,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -7794,7 +7784,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="29">
@@ -7802,7 +7792,7 @@
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="24"/>
@@ -7835,7 +7825,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -7848,7 +7838,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="29">
@@ -7857,7 +7847,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="23"/>
@@ -7889,20 +7879,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="29">
@@ -7941,20 +7931,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="23"/>
       <c r="M11" s="41">
@@ -7966,7 +7956,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
       <c r="S11" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="20"/>
@@ -7995,20 +7985,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="41">
@@ -8020,7 +8010,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="23"/>
       <c r="S12" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="20"/>
@@ -8049,20 +8039,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="F13" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="29">
@@ -8074,7 +8064,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="23"/>
       <c r="S13" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="20"/>
@@ -8350,15 +8340,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AB3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="P3:S3"/>
     <mergeCell ref="S5:AB6"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:J6"/>
@@ -8369,6 +8350,15 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AB3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
